--- a/sbmlutils/dfba/toy_atp/annotations.xlsx
+++ b/sbmlutils/dfba/toy_atp/annotations.xlsx
@@ -580,7 +580,7 @@
   <dimension ref="1:62"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/sbmlutils/dfba/toy_atp/annotations.xlsx
+++ b/sbmlutils/dfba/toy_atp/annotations.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">annotation_type</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
     <t xml:space="preserve">qualifier</t>
   </si>
   <si>
     <t xml:space="preserve">collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -55,31 +55,31 @@
     <t xml:space="preserve">RDF</t>
   </si>
   <si>
-    <t xml:space="preserve">PW:0000640</t>
-  </si>
-  <si>
     <t xml:space="preserve">BQB_IS_VERSION_OF</t>
   </si>
   <si>
     <t xml:space="preserve">pw</t>
   </si>
   <si>
+    <t xml:space="preserve">PW:0000640</t>
+  </si>
+  <si>
     <t xml:space="preserve">glycolysis pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kegg.pathway</t>
   </si>
   <si>
     <t xml:space="preserve">map00010</t>
   </si>
   <si>
-    <t xml:space="preserve">kegg.pathway</t>
-  </si>
-  <si>
     <t xml:space="preserve">Glycolysis / gluconeogenesis</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0006007</t>
+    <t xml:space="preserve">go</t>
   </si>
   <si>
-    <t xml:space="preserve">go</t>
+    <t xml:space="preserve">GO:0006007</t>
   </si>
   <si>
     <t xml:space="preserve">glucose catabolic process</t>
@@ -94,13 +94,13 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000032</t>
-  </si>
-  <si>
     <t xml:space="preserve">BQB_IS</t>
   </si>
   <si>
     <t xml:space="preserve">uo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UO:0000032</t>
   </si>
   <si>
     <t xml:space="preserve">hour</t>
@@ -160,10 +160,10 @@
     <t xml:space="preserve">compartment</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000290</t>
+    <t xml:space="preserve">sbo</t>
   </si>
   <si>
-    <t xml:space="preserve">biomodels.sbo</t>
+    <t xml:space="preserve">SBO:0000290</t>
   </si>
   <si>
     <t xml:space="preserve">physical compartment</t>
@@ -172,10 +172,10 @@
     <t xml:space="preserve">GO:0005623</t>
   </si>
   <si>
-    <t xml:space="preserve">FMA:68646</t>
+    <t xml:space="preserve">fma</t>
   </si>
   <si>
-    <t xml:space="preserve">fma</t>
+    <t xml:space="preserve">FMA:68646</t>
   </si>
   <si>
     <t xml:space="preserve"># species</t>
@@ -193,19 +193,19 @@
     <t xml:space="preserve">simple chemical</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEBI:4167</t>
+    <t xml:space="preserve">chebi</t>
   </si>
   <si>
-    <t xml:space="preserve">chebi</t>
+    <t xml:space="preserve">CHEBI:4167</t>
   </si>
   <si>
     <t xml:space="preserve">D-glucopyranose</t>
   </si>
   <si>
-    <t xml:space="preserve">C00031</t>
+    <t xml:space="preserve">kegg.compound</t>
   </si>
   <si>
-    <t xml:space="preserve">kegg.compound</t>
+    <t xml:space="preserve">C00031</t>
   </si>
   <si>
     <t xml:space="preserve">D-Glucose</t>
@@ -515,12 +515,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -642,20 +642,21 @@
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17 E22 E28 E34 E40 E46 E52 E59:E60 E63 E66 E70:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.219387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.6428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="12.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.219387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="35.2040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="12.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,13 +669,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -687,9 +688,9 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,13 +706,13 @@
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -726,15 +727,15 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -749,15 +750,15 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -765,10 +766,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -776,9 +777,9 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,16 +792,16 @@
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -814,16 +815,16 @@
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -837,16 +838,16 @@
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -860,16 +861,16 @@
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -883,16 +884,16 @@
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>38</v>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -906,16 +907,16 @@
       <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>41</v>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -923,19 +924,19 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -943,9 +944,9 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,16 +959,16 @@
       <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -981,16 +982,16 @@
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1004,16 +1005,16 @@
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1023,11 +1024,10 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -2055,19 +2055,18 @@
       <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -3095,19 +3094,18 @@
       <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -4135,19 +4133,18 @@
       <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -5175,12 +5172,11 @@
       <c r="C25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -6208,12 +6204,11 @@
       <c r="C26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -7239,7 +7234,6 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -8267,14 +8261,14 @@
       <c r="C28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>56</v>
@@ -8290,14 +8284,14 @@
       <c r="C29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>69</v>
@@ -8313,14 +8307,14 @@
       <c r="C30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>71</v>
@@ -8336,11 +8330,11 @@
       <c r="C31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
       <c r="G31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8353,11 +8347,11 @@
       <c r="C32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
       <c r="G32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,14 +8373,14 @@
       <c r="C34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>56</v>
@@ -8402,18 +8396,19 @@
       <c r="C35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="H35" s="0"/>
     </row>
     <row r="36" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
@@ -8425,18 +8420,19 @@
       <c r="C36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>77</v>
       </c>
+      <c r="H36" s="0"/>
     </row>
     <row r="37" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
@@ -8448,10 +8444,11 @@
       <c r="C37" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="H37" s="0"/>
     </row>
     <row r="38" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
@@ -8463,11 +8460,12 @@
       <c r="C38" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="H38" s="0"/>
     </row>
     <row r="39" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
@@ -8477,6 +8475,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
+      <c r="H39" s="0"/>
     </row>
     <row r="40" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
@@ -8488,18 +8487,19 @@
       <c r="C40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="H40" s="0"/>
     </row>
     <row r="41" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
@@ -8511,18 +8511,19 @@
       <c r="C41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>81</v>
       </c>
+      <c r="H41" s="0"/>
     </row>
     <row r="42" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
@@ -8534,18 +8535,19 @@
       <c r="C42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>83</v>
       </c>
+      <c r="H42" s="0"/>
     </row>
     <row r="43" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
@@ -8557,11 +8559,12 @@
       <c r="C43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="H43" s="0"/>
     </row>
     <row r="44" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
@@ -8573,11 +8576,12 @@
       <c r="C44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="H44" s="0"/>
     </row>
     <row r="45" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
@@ -8587,6 +8591,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
+      <c r="H45" s="0"/>
     </row>
     <row r="46" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
@@ -8598,18 +8603,19 @@
       <c r="C46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="H46" s="0"/>
     </row>
     <row r="47" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
@@ -8621,18 +8627,19 @@
       <c r="C47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>87</v>
       </c>
+      <c r="H47" s="0"/>
     </row>
     <row r="48" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
@@ -8644,18 +8651,19 @@
       <c r="C48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>89</v>
       </c>
+      <c r="H48" s="0"/>
     </row>
     <row r="49" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
@@ -8667,11 +8675,12 @@
       <c r="C49" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="H49" s="0"/>
     </row>
     <row r="50" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
@@ -8683,11 +8692,12 @@
       <c r="C50" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="H50" s="0"/>
     </row>
     <row r="51" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11"/>
@@ -8697,6 +8707,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
+      <c r="H51" s="0"/>
     </row>
     <row r="52" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
@@ -8708,18 +8719,19 @@
       <c r="C52" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="H52" s="0"/>
     </row>
     <row r="53" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
@@ -8731,18 +8743,19 @@
       <c r="C53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>94</v>
       </c>
+      <c r="H53" s="0"/>
     </row>
     <row r="54" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
@@ -8754,18 +8767,19 @@
       <c r="C54" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>96</v>
       </c>
+      <c r="H54" s="0"/>
     </row>
     <row r="55" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
@@ -8777,11 +8791,12 @@
       <c r="C55" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="H55" s="0"/>
     </row>
     <row r="56" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
@@ -8793,20 +8808,22 @@
       <c r="C56" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="17" t="n">
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="17" t="n">
         <v>-3</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="H56" s="0"/>
     </row>
     <row r="57" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="1"/>
+      <c r="H57" s="0"/>
     </row>
     <row r="58" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -8814,10 +8831,11 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="5"/>
+      <c r="H58" s="0"/>
     </row>
     <row r="59" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
@@ -8826,21 +8844,22 @@
       <c r="B59" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="H59" s="0"/>
     </row>
     <row r="60" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
@@ -8852,27 +8871,29 @@
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="H60" s="0"/>
     </row>
     <row r="61" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="0"/>
     </row>
     <row r="62" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
@@ -8880,10 +8901,11 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="5"/>
+      <c r="H62" s="0"/>
     </row>
     <row r="63" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
@@ -8895,18 +8917,19 @@
       <c r="C63" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="H63" s="0"/>
     </row>
     <row r="64" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
@@ -8919,17 +8942,18 @@
         <v>10</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="H64" s="0"/>
     </row>
     <row r="65" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7"/>
@@ -8937,8 +8961,9 @@
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="0"/>
     </row>
     <row r="66" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
@@ -8950,18 +8975,19 @@
       <c r="C66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="H66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
@@ -8973,14 +8999,14 @@
       <c r="C67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>113</v>
@@ -8992,11 +9018,10 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="0"/>
       <c r="I69" s="0"/>
       <c r="J69" s="0"/>
       <c r="K69" s="0"/>
@@ -10024,19 +10049,18 @@
       <c r="C70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H70" s="0"/>
       <c r="I70" s="0"/>
       <c r="J70" s="0"/>
       <c r="K70" s="0"/>
@@ -11064,19 +11088,18 @@
       <c r="C71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H71" s="0"/>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>

--- a/sbmlutils/dfba/toy_atp/annotations.xlsx
+++ b/sbmlutils/dfba/toy_atp/annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="111">
   <si>
     <t xml:space="preserve">pattern</t>
   </si>
@@ -34,10 +34,7 @@
     <t xml:space="preserve">qualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity</t>
+    <t xml:space="preserve">resource</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -52,34 +49,25 @@
     <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">RDF</t>
+    <t xml:space="preserve">rdf</t>
   </si>
   <si>
     <t xml:space="preserve">BQB_IS_VERSION_OF</t>
   </si>
   <si>
-    <t xml:space="preserve">pw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PW:0000640</t>
+    <t xml:space="preserve">pw/PW:0000640</t>
   </si>
   <si>
     <t xml:space="preserve">glycolysis pathway</t>
   </si>
   <si>
-    <t xml:space="preserve">kegg.pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map00010</t>
+    <t xml:space="preserve">kegg.pathway/map00010</t>
   </si>
   <si>
     <t xml:space="preserve">Glycolysis / gluconeogenesis</t>
   </si>
   <si>
-    <t xml:space="preserve">go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006007</t>
+    <t xml:space="preserve">go/GO:0006007</t>
   </si>
   <si>
     <t xml:space="preserve">glucose catabolic process</t>
@@ -97,10 +85,7 @@
     <t xml:space="preserve">BQB_IS</t>
   </si>
   <si>
-    <t xml:space="preserve">uo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UO:0000032</t>
+    <t xml:space="preserve">uo/UO:0000032</t>
   </si>
   <si>
     <t xml:space="preserve">hour</t>
@@ -109,7 +94,7 @@
     <t xml:space="preserve">^kg$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000009</t>
+    <t xml:space="preserve">uo/UO:0000009</t>
   </si>
   <si>
     <t xml:space="preserve">kilogram</t>
@@ -118,7 +103,7 @@
     <t xml:space="preserve">^m$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000008</t>
+    <t xml:space="preserve">uo/UO:0000008</t>
   </si>
   <si>
     <t xml:space="preserve">meter</t>
@@ -127,7 +112,7 @@
     <t xml:space="preserve">^m2$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000080</t>
+    <t xml:space="preserve">uo/UO:0000080</t>
   </si>
   <si>
     <t xml:space="preserve">square meter</t>
@@ -136,7 +121,7 @@
     <t xml:space="preserve">^m3$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000096</t>
+    <t xml:space="preserve">uo/UO:0000096</t>
   </si>
   <si>
     <t xml:space="preserve">cubic meter</t>
@@ -145,7 +130,7 @@
     <t xml:space="preserve">^mM$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000063</t>
+    <t xml:space="preserve">uo/UO:0000063</t>
   </si>
   <si>
     <t xml:space="preserve">millimolar</t>
@@ -160,22 +145,16 @@
     <t xml:space="preserve">compartment</t>
   </si>
   <si>
-    <t xml:space="preserve">sbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBO:0000290</t>
+    <t xml:space="preserve">sbo/SBO:0000290</t>
   </si>
   <si>
     <t xml:space="preserve">physical compartment</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0005623</t>
+    <t xml:space="preserve">go/GO:0005623</t>
   </si>
   <si>
-    <t xml:space="preserve">fma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMA:68646</t>
+    <t xml:space="preserve">fma/FMA:68646</t>
   </si>
   <si>
     <t xml:space="preserve"># species</t>
@@ -187,37 +166,31 @@
     <t xml:space="preserve">species</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000247</t>
+    <t xml:space="preserve">sbo/SBO:0000247</t>
   </si>
   <si>
     <t xml:space="preserve">simple chemical</t>
   </si>
   <si>
-    <t xml:space="preserve">chebi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEBI:4167</t>
+    <t xml:space="preserve">chebi/CHEBI:4167</t>
   </si>
   <si>
     <t xml:space="preserve">D-glucopyranose</t>
   </si>
   <si>
-    <t xml:space="preserve">kegg.compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00031</t>
+    <t xml:space="preserve">kegg.compound/C00031</t>
   </si>
   <si>
     <t xml:space="preserve">D-Glucose</t>
   </si>
   <si>
-    <t xml:space="preserve">Formula</t>
+    <t xml:space="preserve">formula</t>
   </si>
   <si>
     <t xml:space="preserve">C6H12O6</t>
   </si>
   <si>
-    <t xml:space="preserve">Charge</t>
+    <t xml:space="preserve">charge</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -226,13 +199,13 @@
     <t xml:space="preserve">fru16bp</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEBI:37736</t>
+    <t xml:space="preserve">chebi/CHEBI:37736</t>
   </si>
   <si>
     <t xml:space="preserve">D-fructofuranose 1,6-bisphosphate</t>
   </si>
   <si>
-    <t xml:space="preserve">C00354</t>
+    <t xml:space="preserve">kegg.compound/C00354</t>
   </si>
   <si>
     <t xml:space="preserve">D-Fructose 1,6-bisphosphate</t>
@@ -244,13 +217,13 @@
     <t xml:space="preserve">pg2</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEBI:17835</t>
+    <t xml:space="preserve">chebi/CHEBI:17835</t>
   </si>
   <si>
     <t xml:space="preserve">2-phospho-D-glyceric acid</t>
   </si>
   <si>
-    <t xml:space="preserve">C00631</t>
+    <t xml:space="preserve">kegg.compound/C00631</t>
   </si>
   <si>
     <t xml:space="preserve">2-Phospho-D-glycerate</t>
@@ -262,13 +235,13 @@
     <t xml:space="preserve">pyr</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEBI:32816</t>
+    <t xml:space="preserve">chebi/CHEBI:32816</t>
   </si>
   <si>
     <t xml:space="preserve">pyruvic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">C00022</t>
+    <t xml:space="preserve">kegg.compound/C00022</t>
   </si>
   <si>
     <t xml:space="preserve">Pyruvate</t>
@@ -280,13 +253,13 @@
     <t xml:space="preserve">atp</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEBI:30616</t>
+    <t xml:space="preserve">chebi/CHEBI:30616</t>
   </si>
   <si>
     <t xml:space="preserve">ATP(4-)</t>
   </si>
   <si>
-    <t xml:space="preserve">C00002</t>
+    <t xml:space="preserve">kegg.compound/C00002</t>
   </si>
   <si>
     <t xml:space="preserve">ATP</t>
@@ -301,13 +274,13 @@
     <t xml:space="preserve">adp</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEBI:456216</t>
+    <t xml:space="preserve">chebi/CHEBI:456216</t>
   </si>
   <si>
     <t xml:space="preserve">ADP(3-)</t>
   </si>
   <si>
-    <t xml:space="preserve">C00008</t>
+    <t xml:space="preserve">kegg.compound/C00008</t>
   </si>
   <si>
     <t xml:space="preserve">ADP</t>
@@ -325,7 +298,7 @@
     <t xml:space="preserve">parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000025</t>
+    <t xml:space="preserve">sbo/SBO:0000025</t>
   </si>
   <si>
     <t xml:space="preserve">catalytic rate constant</t>
@@ -334,7 +307,7 @@
     <t xml:space="preserve">k_RATP</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000027</t>
+    <t xml:space="preserve">sbo/SBO:0000027</t>
   </si>
   <si>
     <t xml:space="preserve">Michaelis constant</t>
@@ -349,7 +322,7 @@
     <t xml:space="preserve">reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000176</t>
+    <t xml:space="preserve">sbo/SBO:0000176</t>
   </si>
   <si>
     <t xml:space="preserve">biochemical reaction</t>
@@ -358,7 +331,7 @@
     <t xml:space="preserve">RATP</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0046034</t>
+    <t xml:space="preserve">go/GO:0046034</t>
   </si>
   <si>
     <t xml:space="preserve">ATP metabolic process</t>
@@ -373,7 +346,7 @@
     <t xml:space="preserve">rule</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000362</t>
+    <t xml:space="preserve">sbo/SBO:0000362</t>
   </si>
   <si>
     <t xml:space="preserve">concentration conservation law</t>
@@ -612,23 +585,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:71"/>
+  <dimension ref="A1:AMI71"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.7448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.015306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="12.6632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.6989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.9948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,15 +617,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -1668,18 +1639,17 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -2695,30 +2665,27 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -3734,30 +3701,27 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -4773,30 +4737,27 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
@@ -5812,16 +5773,15 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
@@ -6837,18 +6797,17 @@
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
@@ -7864,30 +7823,27 @@
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
@@ -8903,30 +8859,27 @@
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
@@ -9942,30 +9895,27 @@
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
@@ -10981,30 +10931,27 @@
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
+      <c r="E11" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -12020,30 +11967,27 @@
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
+      <c r="E12" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -13059,30 +13003,27 @@
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -14098,16 +14039,15 @@
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -15123,16 +15063,15 @@
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -16148,18 +16087,17 @@
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
@@ -17175,30 +17113,27 @@
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>46</v>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
@@ -18214,30 +18149,27 @@
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
+      <c r="E18" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -19253,30 +19185,27 @@
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
-      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>45</v>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -20292,7 +20221,6 @@
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
-      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
@@ -20301,7 +20229,7 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -21317,18 +21245,17 @@
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -22344,30 +22271,27 @@
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>46</v>
+      <c r="E22" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>55</v>
+      <c r="F22" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -23383,30 +23307,27 @@
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>57</v>
+      <c r="E23" s="10" t="s">
+        <v>50</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>58</v>
+      <c r="F23" s="9" t="s">
+        <v>51</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -24422,30 +24343,27 @@
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -25461,24 +25379,23 @@
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
-      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>63</v>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>55</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -26494,24 +26411,23 @@
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10" t="s">
-        <v>66</v>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
       </c>
-      <c r="G26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -27527,7 +27443,6 @@
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -27536,7 +27451,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -28552,30 +28467,27 @@
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>46</v>
+      <c r="E28" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>55</v>
+      <c r="F28" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -29591,30 +29503,27 @@
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>57</v>
+      <c r="E29" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -30630,30 +30539,27 @@
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
-      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>60</v>
+      <c r="E30" s="10" t="s">
+        <v>61</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>70</v>
+      <c r="F30" s="9" t="s">
+        <v>62</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -31669,24 +31575,23 @@
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -32702,24 +32607,23 @@
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10" t="s">
-        <v>66</v>
+      <c r="E32" s="10" t="s">
+        <v>57</v>
       </c>
-      <c r="G32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -33735,7 +33639,6 @@
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
@@ -33744,7 +33647,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -34760,30 +34663,27 @@
       <c r="AMG33" s="0"/>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>46</v>
+      <c r="E34" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>55</v>
+      <c r="F34" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -35799,30 +35699,27 @@
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>57</v>
+      <c r="E35" s="10" t="s">
+        <v>65</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>74</v>
+      <c r="F35" s="9" t="s">
+        <v>66</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -36838,30 +36735,27 @@
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
-      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>60</v>
+      <c r="E36" s="10" t="s">
+        <v>67</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>76</v>
+      <c r="F36" s="9" t="s">
+        <v>68</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="H36" s="0"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -37877,24 +37771,23 @@
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
-      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>63</v>
+      <c r="D37" s="0"/>
+      <c r="E37" s="11" t="s">
+        <v>69</v>
       </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="H37" s="0"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -38910,24 +38803,23 @@
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="10" t="s">
-        <v>66</v>
+      <c r="E38" s="10" t="s">
+        <v>57</v>
       </c>
-      <c r="G38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="H38" s="0"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -39943,7 +39835,6 @@
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
-      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
@@ -39952,7 +39843,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="H39" s="0"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -40968,30 +40859,27 @@
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
-      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>46</v>
+      <c r="E40" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>55</v>
+      <c r="F40" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H40" s="0"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -42007,30 +41895,27 @@
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
-      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>57</v>
+      <c r="E41" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H41" s="0"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -43046,30 +42931,27 @@
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
-      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>60</v>
+      <c r="E42" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="H42" s="0"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -44085,24 +43967,23 @@
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
-      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>63</v>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9" t="s">
+        <v>75</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="H43" s="0"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -45118,24 +44999,23 @@
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
       <c r="AMI43" s="0"/>
-      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="10" t="s">
-        <v>66</v>
+      <c r="E44" s="10" t="s">
+        <v>57</v>
       </c>
-      <c r="G44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="H44" s="0"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -46151,7 +46031,6 @@
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
-      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
@@ -46160,7 +46039,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="H45" s="0"/>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -47176,30 +47055,27 @@
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
       <c r="AMI45" s="0"/>
-      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>46</v>
+      <c r="E46" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>55</v>
+      <c r="F46" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H46" s="0"/>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -48215,30 +48091,27 @@
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
       <c r="AMI46" s="0"/>
-      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>57</v>
+      <c r="E47" s="10" t="s">
+        <v>77</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>86</v>
+      <c r="F47" s="9" t="s">
+        <v>78</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="H47" s="0"/>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -49254,30 +49127,27 @@
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
       <c r="AMI47" s="0"/>
-      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>11</v>
+      <c r="E48" s="10" t="s">
+        <v>79</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>60</v>
+      <c r="F48" s="9" t="s">
+        <v>80</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="H48" s="0"/>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -50293,24 +50163,23 @@
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
       <c r="AMI48" s="0"/>
-      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>63</v>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="H49" s="0"/>
       <c r="I49" s="0"/>
       <c r="J49" s="0"/>
       <c r="K49" s="0"/>
@@ -51326,24 +51195,23 @@
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
-      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="10" t="s">
-        <v>91</v>
+      <c r="E50" s="10" t="s">
+        <v>82</v>
       </c>
-      <c r="G50" s="0"/>
+      <c r="F50" s="0"/>
+      <c r="H50" s="0"/>
       <c r="I50" s="0"/>
       <c r="J50" s="0"/>
       <c r="K50" s="0"/>
@@ -52359,7 +52227,6 @@
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
-      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
@@ -52368,7 +52235,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="H51" s="0"/>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
@@ -53384,30 +53251,27 @@
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
       <c r="AMI51" s="0"/>
-      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>46</v>
+      <c r="E52" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>55</v>
+      <c r="F52" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H52" s="0"/>
       <c r="I52" s="0"/>
       <c r="J52" s="0"/>
       <c r="K52" s="0"/>
@@ -54423,30 +54287,27 @@
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
       <c r="AMI52" s="0"/>
-      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>57</v>
+      <c r="E53" s="10" t="s">
+        <v>84</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>93</v>
+      <c r="F53" s="9" t="s">
+        <v>85</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="H53" s="0"/>
       <c r="I53" s="0"/>
       <c r="J53" s="0"/>
       <c r="K53" s="0"/>
@@ -55462,30 +55323,27 @@
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
       <c r="AMI53" s="0"/>
-      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>11</v>
+      <c r="E54" s="10" t="s">
+        <v>86</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>60</v>
+      <c r="F54" s="9" t="s">
+        <v>87</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="H54" s="0"/>
       <c r="I54" s="0"/>
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
@@ -56501,24 +56359,23 @@
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
-      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>63</v>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9" t="s">
+        <v>88</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="H55" s="0"/>
       <c r="I55" s="0"/>
       <c r="J55" s="0"/>
       <c r="K55" s="0"/>
@@ -57534,24 +57391,23 @@
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
-      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="12" t="n">
+      <c r="E56" s="12" t="n">
         <v>-3</v>
       </c>
-      <c r="G56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="H56" s="0"/>
       <c r="I56" s="0"/>
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
@@ -58567,16 +58423,15 @@
       <c r="AMG56" s="0"/>
       <c r="AMH56" s="0"/>
       <c r="AMI56" s="0"/>
-      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="0"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="0"/>
+      <c r="H57" s="0"/>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
       <c r="K57" s="0"/>
@@ -59592,18 +59447,17 @@
       <c r="AMG57" s="0"/>
       <c r="AMH57" s="0"/>
       <c r="AMI57" s="0"/>
-      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
+      <c r="H58" s="0"/>
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
       <c r="K58" s="0"/>
@@ -60619,30 +60473,27 @@
       <c r="AMG58" s="0"/>
       <c r="AMH58" s="0"/>
       <c r="AMI58" s="0"/>
-      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>46</v>
+      <c r="E59" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="H59" s="0"/>
       <c r="I59" s="0"/>
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
@@ -61658,30 +61509,27 @@
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
       <c r="AMI59" s="0"/>
-      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>46</v>
+      <c r="E60" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="H60" s="0"/>
       <c r="I60" s="0"/>
       <c r="J60" s="0"/>
       <c r="K60" s="0"/>
@@ -62697,16 +62545,15 @@
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
       <c r="AMI60" s="0"/>
-      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="H61" s="0"/>
       <c r="I61" s="0"/>
       <c r="J61" s="0"/>
       <c r="K61" s="0"/>
@@ -63722,18 +63569,17 @@
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
-      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
+      <c r="H62" s="0"/>
       <c r="I62" s="0"/>
       <c r="J62" s="0"/>
       <c r="K62" s="0"/>
@@ -64749,30 +64595,27 @@
       <c r="AMG62" s="0"/>
       <c r="AMH62" s="0"/>
       <c r="AMI62" s="0"/>
-      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>46</v>
+      <c r="E63" s="9" t="s">
+        <v>100</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>109</v>
+      <c r="F63" s="8" t="s">
+        <v>101</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="H63" s="0"/>
       <c r="I63" s="0"/>
       <c r="J63" s="0"/>
       <c r="K63" s="0"/>
@@ -65788,30 +65631,27 @@
       <c r="AMG63" s="0"/>
       <c r="AMH63" s="0"/>
       <c r="AMI63" s="0"/>
-      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="H64" s="0"/>
       <c r="I64" s="0"/>
       <c r="J64" s="0"/>
       <c r="K64" s="0"/>
@@ -66827,7 +66667,6 @@
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
-      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7"/>
@@ -66836,7 +66675,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="H65" s="0"/>
       <c r="I65" s="0"/>
       <c r="J65" s="0"/>
       <c r="K65" s="0"/>
@@ -67852,30 +67691,27 @@
       <c r="AMG65" s="0"/>
       <c r="AMH65" s="0"/>
       <c r="AMI65" s="0"/>
-      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>46</v>
+      <c r="E66" s="9" t="s">
+        <v>100</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>109</v>
+      <c r="F66" s="8" t="s">
+        <v>101</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="H66" s="0"/>
       <c r="I66" s="0"/>
       <c r="J66" s="0"/>
       <c r="K66" s="0"/>
@@ -68891,30 +68727,27 @@
       <c r="AMG66" s="0"/>
       <c r="AMH66" s="0"/>
       <c r="AMI66" s="0"/>
-      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>18</v>
+      <c r="E67" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="H67" s="0"/>
       <c r="I67" s="0"/>
       <c r="J67" s="0"/>
       <c r="K67" s="0"/>
@@ -69930,7 +69763,6 @@
       <c r="AMG67" s="0"/>
       <c r="AMH67" s="0"/>
       <c r="AMI67" s="0"/>
-      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
@@ -69939,7 +69771,7 @@
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
       <c r="I68" s="0"/>
       <c r="J68" s="0"/>
       <c r="K68" s="0"/>
@@ -70955,18 +70787,17 @@
       <c r="AMG68" s="0"/>
       <c r="AMH68" s="0"/>
       <c r="AMI68" s="0"/>
-      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="5"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+      <c r="H69" s="0"/>
       <c r="I69" s="0"/>
       <c r="J69" s="0"/>
       <c r="K69" s="0"/>
@@ -71982,30 +71813,27 @@
       <c r="AMG69" s="0"/>
       <c r="AMH69" s="0"/>
       <c r="AMI69" s="0"/>
-      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>46</v>
+      <c r="E70" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="H70" s="0"/>
       <c r="I70" s="0"/>
       <c r="J70" s="0"/>
       <c r="K70" s="0"/>
@@ -73021,30 +72849,27 @@
       <c r="AMG70" s="0"/>
       <c r="AMH70" s="0"/>
       <c r="AMI70" s="0"/>
-      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>46</v>
+      <c r="E71" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="H71" s="0"/>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
@@ -74060,7 +73885,6 @@
       <c r="AMG71" s="0"/>
       <c r="AMH71" s="0"/>
       <c r="AMI71" s="0"/>
-      <c r="AMJ71" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
